--- a/tut05/output/0401EE29.xlsx
+++ b/tut05/output/0401EE29.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.204081632653061</v>
+        <v>7.2</v>
       </c>
       <c r="C6" t="n">
-        <v>6.295454545454546</v>
+        <v>6.3</v>
       </c>
       <c r="D6" t="n">
-        <v>6.934782608695652</v>
+        <v>6.93</v>
       </c>
       <c r="E6" t="n">
-        <v>6.934782608695652</v>
+        <v>6.93</v>
       </c>
       <c r="F6" t="n">
-        <v>6.846153846153846</v>
+        <v>6.85</v>
       </c>
       <c r="G6" t="n">
-        <v>7.375</v>
+        <v>7.38</v>
       </c>
       <c r="H6" t="n">
-        <v>8.023255813953488</v>
+        <v>8.02</v>
       </c>
       <c r="I6" t="n">
-        <v>7.947368421052632</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.204081632653061</v>
+        <v>7.2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.774193548387097</v>
+        <v>6.77</v>
       </c>
       <c r="D8" t="n">
-        <v>6.827338129496403</v>
+        <v>6.83</v>
       </c>
       <c r="E8" t="n">
-        <v>6.854054054054054</v>
+        <v>6.85</v>
       </c>
       <c r="F8" t="n">
-        <v>6.852678571428571</v>
+        <v>6.85</v>
       </c>
       <c r="G8" t="n">
-        <v>6.931818181818182</v>
+        <v>6.93</v>
       </c>
       <c r="H8" t="n">
-        <v>7.084690553745928</v>
+        <v>7.08</v>
       </c>
       <c r="I8" t="n">
-        <v>7.179710144927537</v>
+        <v>7.18</v>
       </c>
     </row>
   </sheetData>
